--- a/raw_data/20200818_saline/20200818_Sensor0_Test_63.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_63.xlsx
@@ -1,1127 +1,1543 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BFF2E6-D47E-4325-B5C3-529700F0F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>55803.218605</v>
+        <v>55803.218605000002</v>
       </c>
       <c r="B2" s="1">
-        <v>15.500894</v>
+        <v>15.500894000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>903.690000</v>
+        <v>903.69</v>
       </c>
       <c r="D2" s="1">
-        <v>-191.639000</v>
+        <v>-191.63900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>55813.039888</v>
+        <v>55813.039887999999</v>
       </c>
       <c r="G2" s="1">
         <v>15.503622</v>
       </c>
       <c r="H2" s="1">
-        <v>920.025000</v>
+        <v>920.02499999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.093000</v>
+        <v>-163.09299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>55823.515395</v>
+        <v>55823.515395000002</v>
       </c>
       <c r="L2" s="1">
         <v>15.506532</v>
       </c>
       <c r="M2" s="1">
-        <v>941.725000</v>
+        <v>941.72500000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.123000</v>
+        <v>-117.123</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>55834.023173</v>
+        <v>55834.023173000001</v>
       </c>
       <c r="Q2" s="1">
         <v>15.509451</v>
       </c>
       <c r="R2" s="1">
-        <v>948.214000</v>
+        <v>948.21400000000006</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.304000</v>
+        <v>-102.304</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>55844.581480</v>
+        <v>55844.581480000001</v>
       </c>
       <c r="V2" s="1">
-        <v>15.512384</v>
+        <v>15.512384000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>954.691000</v>
+        <v>954.69100000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.164000</v>
+        <v>-89.164000000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>55855.022768</v>
+        <v>55855.022768000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.515284</v>
+        <v>15.515283999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.029000</v>
+        <v>962.029</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.084000</v>
+        <v>-80.084000000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>55865.918415</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.518311</v>
+        <v>15.518311000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.057000</v>
+        <v>967.05700000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.972300</v>
+        <v>-79.972300000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>55876.310061</v>
+        <v>55876.310060999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.521197</v>
+        <v>15.521197000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.054000</v>
+        <v>975.05399999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.023700</v>
+        <v>-88.023700000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>55886.491967</v>
+        <v>55886.491967000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>15.524026</v>
+        <v>15.524025999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.359000</v>
+        <v>984.35900000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.238000</v>
+        <v>-103.238</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>55897.486754</v>
+        <v>55897.486753999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.527080</v>
+        <v>15.52708</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.926000</v>
+        <v>995.92600000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.015000</v>
+        <v>-125.015</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>55908.967650</v>
+        <v>55908.967649999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.530269</v>
+        <v>15.530269000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.946000</v>
+        <v>-143.946</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>55920.265028</v>
+        <v>55920.265028000002</v>
       </c>
       <c r="BE2" s="1">
         <v>15.533407</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.199000</v>
+        <v>-229.19900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>55930.929510</v>
+        <v>55930.929510000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.536369</v>
+        <v>15.536369000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.210000</v>
+        <v>1132.21</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.378000</v>
+        <v>-365.37799999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>55941.674840</v>
+        <v>55941.67484</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.539354</v>
+        <v>15.539353999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.570000</v>
+        <v>1264.57</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.389000</v>
+        <v>-575.38900000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>55951.992618</v>
+        <v>55951.992617999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.542220</v>
+        <v>15.54222</v>
       </c>
       <c r="BU2" s="1">
-        <v>1412.500000</v>
+        <v>1412.5</v>
       </c>
       <c r="BV2" s="1">
-        <v>-799.428000</v>
+        <v>-799.428</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>55962.728523</v>
+        <v>55962.728522999998</v>
       </c>
       <c r="BY2" s="1">
         <v>15.545202</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.330000</v>
+        <v>1575.33</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1033.100000</v>
+        <v>-1033.0999999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>55973.340925</v>
+        <v>55973.340924999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.548150</v>
+        <v>15.54815</v>
       </c>
       <c r="CE2" s="1">
-        <v>1983.970000</v>
+        <v>1983.97</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1579.180000</v>
+        <v>-1579.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>55803.345119</v>
+        <v>55803.345118999998</v>
       </c>
       <c r="B3" s="1">
-        <v>15.500929</v>
+        <v>15.500928999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>903.942000</v>
+        <v>903.94200000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-191.536000</v>
+        <v>-191.536</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>55813.411392</v>
+        <v>55813.411392000002</v>
       </c>
       <c r="G3" s="1">
-        <v>15.503725</v>
+        <v>15.503724999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>920.191000</v>
+        <v>920.19100000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-162.373000</v>
+        <v>-162.37299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>55823.890133</v>
+        <v>55823.890133000001</v>
       </c>
       <c r="L3" s="1">
         <v>15.506636</v>
       </c>
       <c r="M3" s="1">
-        <v>941.776000</v>
+        <v>941.77599999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.136000</v>
+        <v>-117.136</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>55834.398118</v>
+        <v>55834.398117999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.509555</v>
+        <v>15.509555000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.243000</v>
+        <v>948.24300000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.311000</v>
+        <v>-102.31100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>55845.293734</v>
+        <v>55845.293733999999</v>
       </c>
       <c r="V3" s="1">
         <v>15.512582</v>
       </c>
       <c r="W3" s="1">
-        <v>954.671000</v>
+        <v>954.67100000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.136900</v>
+        <v>-89.136899999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>55855.748932</v>
+        <v>55855.748932000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.515486</v>
+        <v>15.515485999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.939000</v>
+        <v>961.93899999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.058700</v>
+        <v>-80.058700000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>55866.263594</v>
+        <v>55866.263593999996</v>
       </c>
       <c r="AF3" s="1">
         <v>15.518407</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.942000</v>
+        <v>966.94200000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.927000</v>
+        <v>-79.927000000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>55876.802095</v>
+        <v>55876.802094999999</v>
       </c>
       <c r="AK3" s="1">
         <v>15.521334</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.071000</v>
+        <v>975.07100000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.002900</v>
+        <v>-88.002899999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>55886.876335</v>
+        <v>55886.876335000001</v>
       </c>
       <c r="AP3" s="1">
         <v>15.524132</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.349000</v>
+        <v>984.34900000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.208000</v>
+        <v>-103.208</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>55898.206945</v>
+        <v>55898.206944999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.527280</v>
+        <v>15.527279999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.944000</v>
+        <v>995.94399999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.021000</v>
+        <v>-125.021</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>55909.664561</v>
+        <v>55909.664560999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>15.530462</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.952000</v>
+        <v>-143.952</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>55920.372196</v>
+        <v>55920.372195999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.533437</v>
+        <v>15.533436999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.219000</v>
+        <v>-229.21899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>55931.384341</v>
+        <v>55931.384340999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.536496</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.160000</v>
+        <v>1132.1600000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.417000</v>
+        <v>-365.41699999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>55941.797848</v>
+        <v>55941.797848000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.539388</v>
+        <v>15.539388000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.560000</v>
+        <v>1264.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.404000</v>
+        <v>-575.404</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>55952.162745</v>
+        <v>55952.162745000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.542267</v>
+        <v>15.542267000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.440000</v>
+        <v>1412.44</v>
       </c>
       <c r="BV3" s="1">
-        <v>-799.323000</v>
+        <v>-799.32299999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>55962.898156</v>
+        <v>55962.898156000003</v>
       </c>
       <c r="BY3" s="1">
         <v>15.545249</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.200000</v>
+        <v>1575.2</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1033.330000</v>
+        <v>-1033.33</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>55973.935666</v>
+        <v>55973.935665999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>15.548315</v>
+        <v>15.548315000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.710000</v>
+        <v>1985.71</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1579.540000</v>
+        <v>-1579.54</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>55803.687368</v>
+        <v>55803.687367999999</v>
       </c>
       <c r="B4" s="1">
-        <v>15.501024</v>
+        <v>15.501023999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>903.880000</v>
+        <v>903.88</v>
       </c>
       <c r="D4" s="1">
-        <v>-191.629000</v>
+        <v>-191.62899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>55813.754656</v>
+        <v>55813.754655999997</v>
       </c>
       <c r="G4" s="1">
         <v>15.503821</v>
       </c>
       <c r="H4" s="1">
-        <v>920.266000</v>
+        <v>920.26599999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-162.503000</v>
+        <v>-162.50299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>55824.580307</v>
+        <v>55824.580306999997</v>
       </c>
       <c r="L4" s="1">
-        <v>15.506828</v>
+        <v>15.506828000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>941.710000</v>
+        <v>941.71</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.152000</v>
+        <v>-117.152</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>55835.094003</v>
+        <v>55835.094002999998</v>
       </c>
       <c r="Q4" s="1">
         <v>15.509748</v>
       </c>
       <c r="R4" s="1">
-        <v>948.279000</v>
+        <v>948.279</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.297000</v>
+        <v>-102.297</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>55845.634020</v>
+        <v>55845.634019999998</v>
       </c>
       <c r="V4" s="1">
-        <v>15.512676</v>
+        <v>15.512676000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.642000</v>
+        <v>954.64200000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.952900</v>
+        <v>-88.9529</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>55856.098618</v>
+        <v>55856.098618000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>15.515583</v>
+        <v>15.515582999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.949000</v>
+        <v>961.94899999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.140300</v>
+        <v>-80.140299999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>55866.606825</v>
+        <v>55866.606825000003</v>
       </c>
       <c r="AF4" s="1">
         <v>15.518502</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.026000</v>
+        <v>967.02599999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.926800</v>
+        <v>-79.9268</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>55877.003966</v>
+        <v>55877.003965999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.521390</v>
+        <v>15.52139</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.042000</v>
+        <v>975.04200000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.998800</v>
+        <v>-87.998800000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>55887.548911</v>
+        <v>55887.548910999998</v>
       </c>
       <c r="AP4" s="1">
         <v>15.524319</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.379000</v>
+        <v>984.37900000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.221000</v>
+        <v>-103.221</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>55898.626095</v>
@@ -1130,255 +1546,255 @@
         <v>15.527396</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.946000</v>
+        <v>995.94600000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.007000</v>
+        <v>-125.00700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>55910.070752</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.530575</v>
+        <v>15.530575000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.720000</v>
+        <v>1005.72</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.952000</v>
+        <v>-143.952</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>55920.719397</v>
+        <v>55920.719397000001</v>
       </c>
       <c r="BE4" s="1">
         <v>15.533533</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.210000</v>
+        <v>-229.21</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>55931.783125</v>
+        <v>55931.783125000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.536606</v>
+        <v>15.536606000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.200000</v>
+        <v>1132.2</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.461000</v>
+        <v>-365.46100000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>55942.206054</v>
+        <v>55942.206054000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.539502</v>
+        <v>15.539502000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.600000</v>
+        <v>1264.5999999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.416000</v>
+        <v>-575.41600000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>55952.574458</v>
+        <v>55952.574458000003</v>
       </c>
       <c r="BT4" s="1">
         <v>15.542382</v>
       </c>
       <c r="BU4" s="1">
-        <v>1412.540000</v>
+        <v>1412.54</v>
       </c>
       <c r="BV4" s="1">
-        <v>-799.344000</v>
+        <v>-799.34400000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>55963.319754</v>
+        <v>55963.319753999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.545367</v>
+        <v>15.545367000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.390000</v>
+        <v>1575.39</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1033.300000</v>
+        <v>-1033.3</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>55974.475771</v>
+        <v>55974.475770999998</v>
       </c>
       <c r="CD4" s="1">
         <v>15.548465</v>
       </c>
       <c r="CE4" s="1">
-        <v>1984.580000</v>
+        <v>1984.58</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1578.280000</v>
+        <v>-1578.28</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>55804.031053</v>
+        <v>55804.031052999999</v>
       </c>
       <c r="B5" s="1">
-        <v>15.501120</v>
+        <v>15.50112</v>
       </c>
       <c r="C5" s="1">
-        <v>903.861000</v>
+        <v>903.86099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-191.730000</v>
+        <v>-191.73</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>55814.444560</v>
+        <v>55814.444560000004</v>
       </c>
       <c r="G5" s="1">
-        <v>15.504012</v>
+        <v>15.504011999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>920.354000</v>
+        <v>920.35400000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.884000</v>
+        <v>-162.88399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>55824.930010</v>
+        <v>55824.930009999996</v>
       </c>
       <c r="L5" s="1">
-        <v>15.506925</v>
+        <v>15.506925000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.778000</v>
+        <v>941.77800000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.118000</v>
+        <v>-117.11799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>55835.440707</v>
+        <v>55835.440707000002</v>
       </c>
       <c r="Q5" s="1">
         <v>15.509845</v>
       </c>
       <c r="R5" s="1">
-        <v>948.250000</v>
+        <v>948.25</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.345000</v>
+        <v>-102.345</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>55845.977221</v>
+        <v>55845.977221000001</v>
       </c>
       <c r="V5" s="1">
-        <v>15.512771</v>
+        <v>15.512771000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>954.672000</v>
+        <v>954.67200000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.024000</v>
+        <v>-89.024000000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>55856.444792</v>
+        <v>55856.444792000002</v>
       </c>
       <c r="AA5" s="1">
         <v>15.515679</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.005000</v>
+        <v>962.005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.100200</v>
+        <v>-80.100200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>55867.258074</v>
+        <v>55867.258073999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.518683</v>
+        <v>15.518682999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.899000</v>
+        <v>966.899</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.920100</v>
+        <v>-79.920100000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>55877.451356</v>
+        <v>55877.451355999998</v>
       </c>
       <c r="AK5" s="1">
         <v>15.521514</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.063000</v>
+        <v>975.06299999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.002400</v>
+        <v>-88.002399999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>55887.981421</v>
+        <v>55887.981420999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.524439</v>
+        <v>15.524438999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.367000</v>
+        <v>984.36699999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.213000</v>
+        <v>-103.21299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>55899.018399</v>
@@ -1387,225 +1803,225 @@
         <v>15.527505</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.941000</v>
+        <v>995.94100000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.058000</v>
+        <v>-125.05800000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>55910.430849</v>
+        <v>55910.430848999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>15.530675</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.720000</v>
+        <v>1005.72</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.946000</v>
+        <v>-143.946</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>55921.074994</v>
+        <v>55921.074994000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.533632</v>
+        <v>15.533632000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.209000</v>
+        <v>-229.209</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>55932.157108</v>
+        <v>55932.157107999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>15.536710</v>
+        <v>15.536709999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.190000</v>
+        <v>1132.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.404000</v>
+        <v>-365.404</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>55942.602357</v>
+        <v>55942.602357000003</v>
       </c>
       <c r="BO5" s="1">
         <v>15.539612</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.570000</v>
+        <v>1264.57</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.406000</v>
+        <v>-575.40599999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>55953.006935</v>
+        <v>55953.006934999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>15.542502</v>
+        <v>15.542502000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.560000</v>
+        <v>1412.56</v>
       </c>
       <c r="BV5" s="1">
-        <v>-799.312000</v>
+        <v>-799.31200000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>55963.743339</v>
+        <v>55963.743339000001</v>
       </c>
       <c r="BY5" s="1">
         <v>15.545484</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.230000</v>
+        <v>1575.23</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1033.350000</v>
+        <v>-1033.3499999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>55975.016944</v>
+        <v>55975.016944000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.548616</v>
+        <v>15.548616000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1984.590000</v>
+        <v>1984.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1580.130000</v>
+        <v>-1580.13</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>55804.710604</v>
       </c>
       <c r="B6" s="1">
-        <v>15.501309</v>
+        <v>15.501308999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>903.734000</v>
+        <v>903.73400000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-191.716000</v>
+        <v>-191.71600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>55814.789306</v>
+        <v>55814.789305999999</v>
       </c>
       <c r="G6" s="1">
         <v>15.504108</v>
       </c>
       <c r="H6" s="1">
-        <v>920.034000</v>
+        <v>920.03399999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.734000</v>
+        <v>-162.73400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>55825.274209</v>
+        <v>55825.274209000003</v>
       </c>
       <c r="L6" s="1">
         <v>15.507021</v>
       </c>
       <c r="M6" s="1">
-        <v>941.716000</v>
+        <v>941.71600000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.193000</v>
+        <v>-117.193</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>55835.789065</v>
+        <v>55835.789064999997</v>
       </c>
       <c r="Q6" s="1">
         <v>15.509941</v>
       </c>
       <c r="R6" s="1">
-        <v>948.249000</v>
+        <v>948.24900000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.368000</v>
+        <v>-102.36799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>55846.639876</v>
+        <v>55846.639876000001</v>
       </c>
       <c r="V6" s="1">
-        <v>15.512956</v>
+        <v>15.512956000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>954.682000</v>
+        <v>954.68200000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.048700</v>
+        <v>-89.048699999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>55857.116870</v>
+        <v>55857.116869999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.515866</v>
+        <v>15.515866000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.993000</v>
+        <v>961.99300000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.082500</v>
+        <v>-80.082499999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>55867.638044</v>
+        <v>55867.638043999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.518788</v>
+        <v>15.518788000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.888000</v>
+        <v>966.88800000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.795200</v>
+        <v>-79.795199999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>55877.704843</v>
@@ -1614,28 +2030,28 @@
         <v>15.521585</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.056000</v>
+        <v>975.05600000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.002700</v>
+        <v>-88.002700000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>55888.343998</v>
+        <v>55888.343997999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.524540</v>
+        <v>15.52454</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.367000</v>
+        <v>984.36699999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.210000</v>
+        <v>-103.21</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>55899.380976</v>
@@ -1644,43 +2060,43 @@
         <v>15.527606</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.938000</v>
+        <v>995.93799999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.022000</v>
+        <v>-125.02200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>55910.790447</v>
+        <v>55910.790446999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.530775</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.951000</v>
+        <v>-143.95099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>55921.506549</v>
+        <v>55921.506548999998</v>
       </c>
       <c r="BE6" s="1">
         <v>15.533752</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.222000</v>
+        <v>-229.22200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>55932.574771</v>
@@ -1689,362 +2105,362 @@
         <v>15.536826</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.455000</v>
+        <v>-365.45499999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>55943.023461</v>
+        <v>55943.023460999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.539729</v>
+        <v>15.539728999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.580000</v>
+        <v>1264.58</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.421000</v>
+        <v>-575.42100000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>55953.433992</v>
+        <v>55953.433991999998</v>
       </c>
       <c r="BT6" s="1">
         <v>15.542621</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.570000</v>
+        <v>1412.57</v>
       </c>
       <c r="BV6" s="1">
-        <v>-799.260000</v>
+        <v>-799.26</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>55964.237352</v>
+        <v>55964.237351999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.545621</v>
+        <v>15.545621000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.420000</v>
+        <v>1575.42</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1033.330000</v>
+        <v>-1033.33</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>55975.553609</v>
+        <v>55975.553609000002</v>
       </c>
       <c r="CD6" s="1">
         <v>15.548765</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.510000</v>
+        <v>1985.51</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1578.170000</v>
+        <v>-1578.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>55805.113820</v>
+        <v>55805.113819999999</v>
       </c>
       <c r="B7" s="1">
-        <v>15.501421</v>
+        <v>15.501421000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>903.852000</v>
+        <v>903.85199999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-191.683000</v>
+        <v>-191.68299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>55815.132542</v>
+        <v>55815.132541999999</v>
       </c>
       <c r="G7" s="1">
         <v>15.504203</v>
       </c>
       <c r="H7" s="1">
-        <v>920.135000</v>
+        <v>920.13499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.719000</v>
+        <v>-162.71899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>55825.924959</v>
+        <v>55825.924959000004</v>
       </c>
       <c r="L7" s="1">
         <v>15.507201</v>
       </c>
       <c r="M7" s="1">
-        <v>941.860000</v>
+        <v>941.86</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.251000</v>
+        <v>-117.251</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>55836.445106</v>
+        <v>55836.445105999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.510124</v>
+        <v>15.510123999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>948.190000</v>
+        <v>948.19</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.302000</v>
+        <v>-102.30200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>55847.008405</v>
       </c>
       <c r="V7" s="1">
-        <v>15.513058</v>
+        <v>15.513057999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>954.681000</v>
+        <v>954.68100000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.091000</v>
+        <v>-89.090999999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>55857.492870</v>
+        <v>55857.492870000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>15.515970</v>
+        <v>15.515969999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.944000</v>
+        <v>961.94399999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.052800</v>
+        <v>-80.052800000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>55867.981277</v>
+        <v>55867.981276999999</v>
       </c>
       <c r="AF7" s="1">
         <v>15.518884</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.999000</v>
+        <v>966.99900000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.965900</v>
+        <v>-79.965900000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>55878.055018</v>
+        <v>55878.055017999999</v>
       </c>
       <c r="AK7" s="1">
         <v>15.521682</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.029000</v>
+        <v>975.029</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.006200</v>
+        <v>-88.006200000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>55888.703102</v>
+        <v>55888.703101999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>15.524640</v>
+        <v>15.52464</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.345000</v>
+        <v>984.34500000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>55899.798638</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.527722</v>
+        <v>15.527722000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.928000</v>
+        <v>995.928</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.002000</v>
+        <v>-125.002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>55911.221470</v>
+        <v>55911.221469999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.530895</v>
+        <v>15.530894999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.964000</v>
+        <v>-143.964</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>55921.802160</v>
+        <v>55921.802159999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.533834</v>
+        <v>15.533834000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.220000</v>
+        <v>-229.22</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>55932.909539</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.536919</v>
+        <v>15.536918999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.210000</v>
+        <v>1132.21</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.396000</v>
+        <v>-365.39600000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>55943.421253</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.539839</v>
+        <v>15.539839000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.590000</v>
+        <v>1264.5899999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.411000</v>
+        <v>-575.41099999999994</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>55953.846166</v>
+        <v>55953.846166000003</v>
       </c>
       <c r="BT7" s="1">
         <v>15.542735</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.600000</v>
+        <v>1412.6</v>
       </c>
       <c r="BV7" s="1">
-        <v>-799.261000</v>
+        <v>-799.26099999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>55964.624728</v>
+        <v>55964.624728000003</v>
       </c>
       <c r="BY7" s="1">
         <v>15.545729</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.260000</v>
+        <v>1575.26</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1033.180000</v>
+        <v>-1033.18</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>55976.094745</v>
+        <v>55976.094745000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.548915</v>
+        <v>15.548914999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1983.990000</v>
+        <v>1983.99</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1579.350000</v>
+        <v>-1579.35</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>55805.401995</v>
       </c>
       <c r="B8" s="1">
-        <v>15.501501</v>
+        <v>15.501500999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>903.866000</v>
+        <v>903.86599999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-191.631000</v>
+        <v>-191.631</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>55815.782765</v>
+        <v>55815.782765000004</v>
       </c>
       <c r="G8" s="1">
         <v>15.504384</v>
       </c>
       <c r="H8" s="1">
-        <v>919.973000</v>
+        <v>919.97299999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-162.635000</v>
+        <v>-162.63499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>55826.310351</v>
@@ -2053,512 +2469,512 @@
         <v>15.507308</v>
       </c>
       <c r="M8" s="1">
-        <v>941.800000</v>
+        <v>941.8</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.085000</v>
+        <v>-117.08499999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>55836.835953</v>
+        <v>55836.835953000002</v>
       </c>
       <c r="Q8" s="1">
         <v>15.510232</v>
       </c>
       <c r="R8" s="1">
-        <v>948.225000</v>
+        <v>948.22500000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.273000</v>
+        <v>-102.273</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>55847.355603</v>
+        <v>55847.355603000004</v>
       </c>
       <c r="V8" s="1">
         <v>15.513154</v>
       </c>
       <c r="W8" s="1">
-        <v>954.582000</v>
+        <v>954.58199999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.099200</v>
+        <v>-89.099199999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>55857.844005</v>
+        <v>55857.844004999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.516068</v>
+        <v>15.516068000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.932000</v>
+        <v>961.93200000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.113900</v>
+        <v>-80.113900000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>55868.328936</v>
+        <v>55868.328935999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.518980</v>
+        <v>15.518980000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.147000</v>
+        <v>967.14700000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.921500</v>
+        <v>-79.921499999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>55878.482042</v>
+        <v>55878.482042000003</v>
       </c>
       <c r="AK8" s="1">
         <v>15.521801</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.031000</v>
+        <v>975.03099999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.006800</v>
+        <v>-88.006799999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>55889.112300</v>
+        <v>55889.112300000001</v>
       </c>
       <c r="AP8" s="1">
         <v>15.524753</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.364000</v>
+        <v>984.36400000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>55900.110626</v>
+        <v>55900.110626000002</v>
       </c>
       <c r="AU8" s="1">
         <v>15.527809</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.957000</v>
+        <v>995.95699999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.025000</v>
+        <v>-125.02500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>55911.513616</v>
+        <v>55911.513615999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.530976</v>
+        <v>15.530976000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.944000</v>
+        <v>-143.94399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>55922.164722</v>
+        <v>55922.164722000001</v>
       </c>
       <c r="BE8" s="1">
         <v>15.533935</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.212000</v>
+        <v>-229.21199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>55933.304391</v>
+        <v>55933.304390999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.537029</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.160000</v>
+        <v>1132.1600000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.405000</v>
+        <v>-365.40499999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>55943.840868</v>
+        <v>55943.840867999999</v>
       </c>
       <c r="BO8" s="1">
         <v>15.539956</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.590000</v>
+        <v>1264.5899999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.423000</v>
+        <v>-575.423</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>55954.277695</v>
+        <v>55954.277694999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.542855</v>
+        <v>15.542854999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.700000</v>
+        <v>1412.7</v>
       </c>
       <c r="BV8" s="1">
-        <v>-799.248000</v>
+        <v>-799.24800000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>55965.047815</v>
+        <v>55965.047814999998</v>
       </c>
       <c r="BY8" s="1">
         <v>15.545847</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.230000</v>
+        <v>1575.23</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1033.360000</v>
+        <v>-1033.3599999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>55976.632409</v>
+        <v>55976.632408999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>15.549065</v>
+        <v>15.549065000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.830000</v>
+        <v>1985.83</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1579.510000</v>
+        <v>-1579.51</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>55805.843434</v>
+        <v>55805.843434000002</v>
       </c>
       <c r="B9" s="1">
         <v>15.501623</v>
       </c>
       <c r="C9" s="1">
-        <v>903.945000</v>
+        <v>903.94500000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-191.729000</v>
+        <v>-191.72900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>55816.168183</v>
+        <v>55816.168183000002</v>
       </c>
       <c r="G9" s="1">
         <v>15.504491</v>
       </c>
       <c r="H9" s="1">
-        <v>919.988000</v>
+        <v>919.98800000000006</v>
       </c>
       <c r="I9" s="1">
-        <v>-162.739000</v>
+        <v>-162.739</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>55826.656558</v>
+        <v>55826.656558000002</v>
       </c>
       <c r="L9" s="1">
         <v>15.507405</v>
       </c>
       <c r="M9" s="1">
-        <v>941.721000</v>
+        <v>941.721</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.152000</v>
+        <v>-117.152</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>55837.185632</v>
+        <v>55837.185632000001</v>
       </c>
       <c r="Q9" s="1">
         <v>15.510329</v>
       </c>
       <c r="R9" s="1">
-        <v>948.237000</v>
+        <v>948.23699999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.297000</v>
+        <v>-102.297</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>55847.699331</v>
+        <v>55847.699331000003</v>
       </c>
       <c r="V9" s="1">
-        <v>15.513250</v>
+        <v>15.513249999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>954.641000</v>
+        <v>954.64099999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.069800</v>
+        <v>-89.069800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>55858.192229</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.516165</v>
+        <v>15.516165000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.017000</v>
+        <v>962.01700000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.107100</v>
+        <v>-80.107100000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>55868.754504</v>
+        <v>55868.754503999997</v>
       </c>
       <c r="AF9" s="1">
         <v>15.519098</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.080000</v>
+        <v>967.08</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.886900</v>
+        <v>-79.886899999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>55878.751865</v>
+        <v>55878.751864999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.521876</v>
+        <v>15.521876000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.043000</v>
+        <v>975.04300000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.028700</v>
+        <v>-88.028700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>55889.421307</v>
+        <v>55889.421306999997</v>
       </c>
       <c r="AP9" s="1">
         <v>15.524839</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.357000</v>
+        <v>984.35699999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.213000</v>
+        <v>-103.21299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>55900.474158</v>
+        <v>55900.474157999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.527909</v>
+        <v>15.527908999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.932000</v>
+        <v>995.93200000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.045000</v>
+        <v>-125.045</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>55911.868751</v>
+        <v>55911.868751000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>15.531075</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.740000</v>
+        <v>1005.74</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.921000</v>
+        <v>-143.92099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>55922.523808</v>
+        <v>55922.523807999998</v>
       </c>
       <c r="BE9" s="1">
         <v>15.534034</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.218000</v>
+        <v>-229.21799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>55933.682305</v>
+        <v>55933.682305000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>15.537134</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.160000</v>
+        <v>1132.1600000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.465000</v>
+        <v>-365.46499999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>55944.236179</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.540066</v>
+        <v>15.540065999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.449000</v>
+        <v>-575.44899999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>55954.705733</v>
+        <v>55954.705733000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.542974</v>
+        <v>15.542973999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.640000</v>
+        <v>1412.64</v>
       </c>
       <c r="BV9" s="1">
-        <v>-799.294000</v>
+        <v>-799.29399999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>55965.468424</v>
+        <v>55965.468423999999</v>
       </c>
       <c r="BY9" s="1">
         <v>15.545963</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1033.330000</v>
+        <v>-1033.33</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>55977.175031</v>
+        <v>55977.175030999999</v>
       </c>
       <c r="CD9" s="1">
         <v>15.549215</v>
       </c>
       <c r="CE9" s="1">
-        <v>1984.290000</v>
+        <v>1984.29</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1578.200000</v>
+        <v>-1578.2</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>55806.107306</v>
+        <v>55806.107305999998</v>
       </c>
       <c r="B10" s="1">
-        <v>15.501696</v>
+        <v>15.501696000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>903.725000</v>
+        <v>903.72500000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-191.749000</v>
+        <v>-191.749</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>55816.514861</v>
+        <v>55816.514861000003</v>
       </c>
       <c r="G10" s="1">
-        <v>15.504587</v>
+        <v>15.504587000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.002000</v>
+        <v>920.00199999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-162.639000</v>
+        <v>-162.63900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>55827.002301</v>
@@ -2567,692 +2983,692 @@
         <v>15.507501</v>
       </c>
       <c r="M10" s="1">
-        <v>941.649000</v>
+        <v>941.649</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.181000</v>
+        <v>-117.181</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>55837.534848</v>
+        <v>55837.534848000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.510426</v>
+        <v>15.510426000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.227000</v>
+        <v>948.22699999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.314000</v>
+        <v>-102.31399999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>55848.122915</v>
       </c>
       <c r="V10" s="1">
-        <v>15.513367</v>
+        <v>15.513367000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.749000</v>
+        <v>954.74900000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.100700</v>
+        <v>-89.100700000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>55858.610324</v>
+        <v>55858.610324000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>15.516281</v>
+        <v>15.516280999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.022000</v>
+        <v>962.02200000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.110700</v>
+        <v>-80.110699999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>55869.033254</v>
+        <v>55869.033254000002</v>
       </c>
       <c r="AF10" s="1">
         <v>15.519176</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.959000</v>
+        <v>966.95899999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.830200</v>
+        <v>-79.830200000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>55879.100580</v>
+        <v>55879.100579999998</v>
       </c>
       <c r="AK10" s="1">
         <v>15.521972</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.047000</v>
+        <v>975.04700000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.997900</v>
+        <v>-87.997900000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>55889.784390</v>
+        <v>55889.784390000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.524940</v>
+        <v>15.524940000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.388000</v>
+        <v>984.38800000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.219000</v>
+        <v>-103.21899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>55900.840236</v>
+        <v>55900.840235999996</v>
       </c>
       <c r="AU10" s="1">
-        <v>15.528011</v>
+        <v>15.528010999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.936000</v>
+        <v>995.93600000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.013000</v>
+        <v>-125.01300000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>55912.227394</v>
+        <v>55912.227394000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.531174</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.690000</v>
+        <v>1005.69</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.937000</v>
+        <v>-143.93700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>55923.247008</v>
+        <v>55923.247007999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>15.534235</v>
+        <v>15.534235000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.201000</v>
+        <v>-229.20099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>55934.435232</v>
+        <v>55934.435232000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>15.537343</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.383000</v>
+        <v>-365.38299999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>55944.658772</v>
+        <v>55944.658772000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.540183</v>
+        <v>15.540183000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.560000</v>
+        <v>1264.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.457000</v>
+        <v>-575.45699999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>55955.118404</v>
+        <v>55955.118404000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.543088</v>
+        <v>15.543087999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.760000</v>
+        <v>1412.76</v>
       </c>
       <c r="BV10" s="1">
-        <v>-799.241000</v>
+        <v>-799.24099999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>55965.894982</v>
+        <v>55965.894981999998</v>
       </c>
       <c r="BY10" s="1">
         <v>15.546082</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.350000</v>
+        <v>1575.35</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>55977.715639</v>
+        <v>55977.715639000002</v>
       </c>
       <c r="CD10" s="1">
         <v>15.549365</v>
       </c>
       <c r="CE10" s="1">
-        <v>1985.220000</v>
+        <v>1985.22</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1580.380000</v>
+        <v>-1580.38</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>55806.443594</v>
+        <v>55806.443593999997</v>
       </c>
       <c r="B11" s="1">
-        <v>15.501790</v>
+        <v>15.50179</v>
       </c>
       <c r="C11" s="1">
-        <v>903.751000</v>
+        <v>903.75099999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-191.634000</v>
+        <v>-191.63399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>55816.864539</v>
+        <v>55816.864539000002</v>
       </c>
       <c r="G11" s="1">
         <v>15.504685</v>
       </c>
       <c r="H11" s="1">
-        <v>920.226000</v>
+        <v>920.226</v>
       </c>
       <c r="I11" s="1">
-        <v>-162.805000</v>
+        <v>-162.80500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>55827.418415</v>
       </c>
       <c r="L11" s="1">
-        <v>15.507616</v>
+        <v>15.507616000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.625000</v>
+        <v>941.625</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.137000</v>
+        <v>-117.137</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>55837.958436</v>
+        <v>55837.958436000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.510544</v>
+        <v>15.510543999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>948.223000</v>
+        <v>948.22299999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.344000</v>
+        <v>-102.34399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>55848.404642</v>
+        <v>55848.404642000001</v>
       </c>
       <c r="V11" s="1">
         <v>15.513446</v>
       </c>
       <c r="W11" s="1">
-        <v>954.629000</v>
+        <v>954.62900000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.113200</v>
+        <v>-89.113200000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>55858.953095</v>
+        <v>55858.953094999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.516376</v>
+        <v>15.516375999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.004000</v>
+        <v>962.00400000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.148800</v>
+        <v>-80.148799999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>55869.377478</v>
+        <v>55869.377478000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.519272</v>
+        <v>15.519272000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.954000</v>
+        <v>966.95399999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.934100</v>
+        <v>-79.934100000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>55879.449769</v>
+        <v>55879.449768999999</v>
       </c>
       <c r="AK11" s="1">
         <v>15.522069</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.034000</v>
+        <v>975.03399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.013700</v>
+        <v>-88.0137</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>55890.148939</v>
+        <v>55890.148938999999</v>
       </c>
       <c r="AP11" s="1">
         <v>15.525041</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.369000</v>
+        <v>984.36900000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.204000</v>
+        <v>-103.20399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>55901.569325</v>
+        <v>55901.569324999997</v>
       </c>
       <c r="AU11" s="1">
         <v>15.528214</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.956000</v>
+        <v>995.95600000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.036000</v>
+        <v>-125.036</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>55912.945068</v>
+        <v>55912.945068000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.531374</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.930000</v>
+        <v>-143.93</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>55923.608062</v>
+        <v>55923.608061999999</v>
       </c>
       <c r="BE11" s="1">
         <v>15.534336</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.225000</v>
+        <v>-229.22499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>55934.810703</v>
+        <v>55934.810703000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.537447</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.160000</v>
+        <v>1132.1600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.437000</v>
+        <v>-365.43700000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>55945.054579</v>
+        <v>55945.054579000003</v>
       </c>
       <c r="BO11" s="1">
         <v>15.540293</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.600000</v>
+        <v>1264.5999999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.437000</v>
+        <v>-575.43700000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>55955.546982</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.543207</v>
+        <v>15.543207000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.740000</v>
+        <v>1412.74</v>
       </c>
       <c r="BV11" s="1">
-        <v>-799.223000</v>
+        <v>-799.22299999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>55966.312614</v>
+        <v>55966.312614000002</v>
       </c>
       <c r="BY11" s="1">
         <v>15.546198</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.120000</v>
+        <v>1575.12</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1033.250000</v>
+        <v>-1033.25</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>55978.254327</v>
+        <v>55978.254327000002</v>
       </c>
       <c r="CD11" s="1">
         <v>15.549515</v>
       </c>
       <c r="CE11" s="1">
-        <v>1985.220000</v>
+        <v>1985.22</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1578.070000</v>
+        <v>-1578.07</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>55806.863209</v>
+        <v>55806.863209000003</v>
       </c>
       <c r="B12" s="1">
         <v>15.501906</v>
       </c>
       <c r="C12" s="1">
-        <v>903.800000</v>
+        <v>903.8</v>
       </c>
       <c r="D12" s="1">
-        <v>-191.730000</v>
+        <v>-191.73</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>55817.288619</v>
+        <v>55817.288618999999</v>
       </c>
       <c r="G12" s="1">
         <v>15.504802</v>
       </c>
       <c r="H12" s="1">
-        <v>920.023000</v>
+        <v>920.02300000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.477000</v>
+        <v>-162.477</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>55827.707087</v>
+        <v>55827.707087000003</v>
       </c>
       <c r="L12" s="1">
-        <v>15.507696</v>
+        <v>15.507695999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>941.653000</v>
+        <v>941.65300000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.039000</v>
+        <v>-117.039</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>55838.238143</v>
+        <v>55838.238143000002</v>
       </c>
       <c r="Q12" s="1">
         <v>15.510622</v>
       </c>
       <c r="R12" s="1">
-        <v>948.209000</v>
+        <v>948.20899999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.368000</v>
+        <v>-102.36799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>55848.742913</v>
+        <v>55848.742913000002</v>
       </c>
       <c r="V12" s="1">
-        <v>15.513540</v>
+        <v>15.513540000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.736000</v>
+        <v>954.73599999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.061500</v>
+        <v>-89.061499999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>55859.262563</v>
+        <v>55859.262562999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>15.516462</v>
+        <v>15.516462000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.976000</v>
+        <v>961.976</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.065400</v>
+        <v>-80.065399999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>55869.719719</v>
+        <v>55869.719719000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.519367</v>
+        <v>15.519367000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.117000</v>
+        <v>967.11699999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.070700</v>
+        <v>-80.070700000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>55880.145624</v>
+        <v>55880.145623999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.522263</v>
+        <v>15.522263000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.063000</v>
+        <v>975.06299999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.003000</v>
+        <v>-88.003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>55890.869130</v>
+        <v>55890.869129999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.525241</v>
+        <v>15.525240999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.384000</v>
+        <v>984.38400000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.218000</v>
+        <v>-103.218</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>55901.959711</v>
+        <v>55901.959711000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.528322</v>
+        <v>15.528321999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.938000</v>
+        <v>995.93799999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>55913.304707</v>
+        <v>55913.304707000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.531474</v>
+        <v>15.531473999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.934000</v>
+        <v>-143.934</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>55923.970142</v>
+        <v>55923.970141999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.534436</v>
+        <v>15.534435999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.219000</v>
+        <v>-229.21899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>55935.182240</v>
+        <v>55935.182240000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.537551</v>
+        <v>15.537551000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.180000</v>
+        <v>1132.18</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.446000</v>
+        <v>-365.44600000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>55945.476210</v>
+        <v>55945.476210000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>15.540410</v>
+        <v>15.54041</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.590000</v>
+        <v>1264.5899999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.450000</v>
+        <v>-575.45000000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>55955.975027</v>
@@ -3261,165 +3677,165 @@
         <v>15.543326</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.800000</v>
+        <v>1412.8</v>
       </c>
       <c r="BV12" s="1">
-        <v>-799.187000</v>
+        <v>-799.18700000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>55966.759015</v>
+        <v>55966.759015000003</v>
       </c>
       <c r="BY12" s="1">
         <v>15.546322</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.200000</v>
+        <v>1575.2</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1033.460000</v>
+        <v>-1033.46</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>55979.107909</v>
+        <v>55979.107908999998</v>
       </c>
       <c r="CD12" s="1">
         <v>15.549752</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.660000</v>
+        <v>1985.66</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1580.000000</v>
+        <v>-1580</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>55807.147416</v>
       </c>
       <c r="B13" s="1">
-        <v>15.501985</v>
+        <v>15.501984999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>903.603000</v>
+        <v>903.60299999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-191.802000</v>
+        <v>-191.80199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>55817.567405</v>
+        <v>55817.567405000002</v>
       </c>
       <c r="G13" s="1">
-        <v>15.504880</v>
+        <v>15.50488</v>
       </c>
       <c r="H13" s="1">
-        <v>920.373000</v>
+        <v>920.37300000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.719000</v>
+        <v>-162.71899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>55828.053322</v>
       </c>
       <c r="L13" s="1">
-        <v>15.507793</v>
+        <v>15.507792999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.961000</v>
+        <v>941.96100000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.177000</v>
+        <v>-117.17700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>55838.583856</v>
+        <v>55838.583855999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.510718</v>
+        <v>15.510718000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.204000</v>
+        <v>948.20399999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.305000</v>
+        <v>-102.30500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>55849.090609</v>
+        <v>55849.090608999999</v>
       </c>
       <c r="V13" s="1">
         <v>15.513636</v>
       </c>
       <c r="W13" s="1">
-        <v>954.652000</v>
+        <v>954.65200000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.982500</v>
+        <v>-88.982500000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>55859.961426</v>
+        <v>55859.961426000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.516656</v>
+        <v>15.516655999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.943000</v>
+        <v>961.94299999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.123300</v>
+        <v>-80.1233</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>55870.405684</v>
+        <v>55870.405683999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.519557</v>
+        <v>15.519557000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.018000</v>
+        <v>967.01800000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.901100</v>
+        <v>-79.9011</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>55880.493815</v>
+        <v>55880.493815000002</v>
       </c>
       <c r="AK13" s="1">
         <v>15.522359</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.047000</v>
+        <v>975.04700000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.988100</v>
+        <v>-87.988100000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>55891.239641</v>
@@ -3428,88 +3844,88 @@
         <v>15.525344</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.367000</v>
+        <v>984.36699999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.213000</v>
+        <v>-103.21299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>55902.324266</v>
+        <v>55902.324266000003</v>
       </c>
       <c r="AU13" s="1">
         <v>15.528423</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.941000</v>
+        <v>995.94100000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.041000</v>
+        <v>-125.041</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>55913.968843</v>
+        <v>55913.968843000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.531658</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.720000</v>
+        <v>1005.72</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.949000</v>
+        <v>-143.94900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>55924.638776</v>
       </c>
       <c r="BE13" s="1">
-        <v>15.534622</v>
+        <v>15.534622000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.212000</v>
+        <v>-229.21199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>55935.864702</v>
+        <v>55935.864701999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.537740</v>
+        <v>15.537739999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.370000</v>
+        <v>-365.37</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>55946.179258</v>
+        <v>55946.179257999996</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.540605</v>
+        <v>15.540604999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.570000</v>
+        <v>1264.57</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.427000</v>
+        <v>-575.42700000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>55956.675379</v>
@@ -3518,317 +3934,317 @@
         <v>15.543521</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="BV13" s="1">
-        <v>-799.266000</v>
+        <v>-799.26599999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>55967.179127</v>
+        <v>55967.179127000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.546439</v>
+        <v>15.546438999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.320000</v>
+        <v>1575.32</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1033.320000</v>
+        <v>-1033.32</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>55979.334117</v>
+        <v>55979.334116999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>15.549815</v>
+        <v>15.549815000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.870000</v>
+        <v>1985.87</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1579.940000</v>
+        <v>-1579.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>55807.487176</v>
+        <v>55807.487176000002</v>
       </c>
       <c r="B14" s="1">
-        <v>15.502080</v>
+        <v>15.502079999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>903.781000</v>
+        <v>903.78099999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-191.739000</v>
+        <v>-191.739</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>55817.913114</v>
+        <v>55817.913114000003</v>
       </c>
       <c r="G14" s="1">
-        <v>15.504976</v>
+        <v>15.504975999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.208000</v>
+        <v>920.20799999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-162.728000</v>
+        <v>-162.72800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>55828.398045</v>
+        <v>55828.398045000002</v>
       </c>
       <c r="L14" s="1">
-        <v>15.507888</v>
+        <v>15.507887999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>941.766000</v>
+        <v>941.76599999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.117000</v>
+        <v>-117.117</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>55838.935022</v>
+        <v>55838.935021999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.510815</v>
+        <v>15.510814999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.219000</v>
+        <v>948.21900000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.287000</v>
+        <v>-102.28700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>55849.774591</v>
+        <v>55849.774591000001</v>
       </c>
       <c r="V14" s="1">
         <v>15.513826</v>
       </c>
       <c r="W14" s="1">
-        <v>954.684000</v>
+        <v>954.68399999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.062400</v>
+        <v>-89.062399999999997</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>55860.305650</v>
+        <v>55860.305650000002</v>
       </c>
       <c r="AA14" s="1">
         <v>15.516752</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.988000</v>
+        <v>961.98800000000006</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.075000</v>
+        <v>-80.075000000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>55870.750405</v>
+        <v>55870.750404999999</v>
       </c>
       <c r="AF14" s="1">
         <v>15.519653</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.017000</v>
+        <v>967.01700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.914400</v>
+        <v>-79.914400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>55880.843992</v>
+        <v>55880.843992000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.522457</v>
+        <v>15.522456999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.054000</v>
+        <v>975.05399999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.991800</v>
+        <v>-87.991799999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>55891.608691</v>
+        <v>55891.608691000001</v>
       </c>
       <c r="AP14" s="1">
         <v>15.525447</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.378000</v>
+        <v>984.37800000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.241000</v>
+        <v>-103.241</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>55903.001770</v>
+        <v>55903.001770000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.528612</v>
+        <v>15.528612000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.962000</v>
+        <v>995.96199999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.050000</v>
+        <v>-125.05</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>55914.414714</v>
+        <v>55914.414713999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>15.531782</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.930000</v>
+        <v>-143.93</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>55925.079228</v>
+        <v>55925.079228000002</v>
       </c>
       <c r="BE14" s="1">
         <v>15.534744</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.219000</v>
+        <v>-229.21899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>55935.970859</v>
+        <v>55935.970859000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.537770</v>
+        <v>15.53777</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.180000</v>
+        <v>1132.18</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.397000</v>
+        <v>-365.39699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>55946.295077</v>
+        <v>55946.295077000002</v>
       </c>
       <c r="BO14" s="1">
         <v>15.540638</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.550000</v>
+        <v>1264.55</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.397000</v>
+        <v>-575.39700000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>55956.817699</v>
+        <v>55956.817698999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>15.543560</v>
+        <v>15.543559999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="BV14" s="1">
-        <v>-799.283000</v>
+        <v>-799.28300000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>55967.602708</v>
+        <v>55967.602707999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.546556</v>
+        <v>15.546556000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.410000</v>
+        <v>1575.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1033.520000</v>
+        <v>-1033.52</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>55979.851413</v>
+        <v>55979.851412999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.549959</v>
+        <v>15.549958999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1985.650000</v>
+        <v>1985.65</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1578.490000</v>
+        <v>-1578.49</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>55807.831896</v>
+        <v>55807.831896000003</v>
       </c>
       <c r="B15" s="1">
         <v>15.502176</v>
       </c>
       <c r="C15" s="1">
-        <v>903.837000</v>
+        <v>903.83699999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-191.518000</v>
+        <v>-191.518</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>55818.257802</v>
@@ -3837,88 +4253,88 @@
         <v>15.505072</v>
       </c>
       <c r="H15" s="1">
-        <v>920.192000</v>
+        <v>920.19200000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-162.628000</v>
+        <v>-162.62799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>55829.092411</v>
+        <v>55829.092410999998</v>
       </c>
       <c r="L15" s="1">
-        <v>15.508081</v>
+        <v>15.508081000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.734000</v>
+        <v>941.73400000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.111000</v>
+        <v>-117.111</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>55839.632895</v>
+        <v>55839.632895000002</v>
       </c>
       <c r="Q15" s="1">
         <v>15.511009</v>
       </c>
       <c r="R15" s="1">
-        <v>948.247000</v>
+        <v>948.24699999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.340000</v>
+        <v>-102.34</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>55850.117859</v>
+        <v>55850.117858999998</v>
       </c>
       <c r="V15" s="1">
-        <v>15.513922</v>
+        <v>15.513922000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.696000</v>
+        <v>954.69600000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.122400</v>
+        <v>-89.122399999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>55860.657313</v>
+        <v>55860.657313000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.516849</v>
+        <v>15.516849000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.990000</v>
+        <v>961.99</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.069900</v>
+        <v>-80.069900000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>55871.093672</v>
+        <v>55871.093672000003</v>
       </c>
       <c r="AF15" s="1">
         <v>15.519748</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.004000</v>
+        <v>967.00400000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.873600</v>
+        <v>-79.873599999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>55881.501699</v>
@@ -3927,118 +4343,118 @@
         <v>15.522639</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.057000</v>
+        <v>975.05700000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.002700</v>
+        <v>-88.002700000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>55892.272344</v>
+        <v>55892.272343999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.525631</v>
+        <v>15.525631000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.393000</v>
+        <v>984.39300000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.209000</v>
+        <v>-103.209</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>55903.451677</v>
+        <v>55903.451676999997</v>
       </c>
       <c r="AU15" s="1">
         <v>15.528737</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.932000</v>
+        <v>995.93200000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.025000</v>
+        <v>-125.02500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>55914.772827</v>
+        <v>55914.772827000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>15.531881</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.740000</v>
+        <v>1005.74</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.943000</v>
+        <v>-143.94300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>55925.439292</v>
+        <v>55925.439292000003</v>
       </c>
       <c r="BE15" s="1">
         <v>15.534844</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.224000</v>
+        <v>-229.22399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>55936.342879</v>
+        <v>55936.342879000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.537873</v>
+        <v>15.537872999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.160000</v>
+        <v>1132.1600000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.425000</v>
+        <v>-365.42500000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>55946.720672</v>
+        <v>55946.720672000003</v>
       </c>
       <c r="BO15" s="1">
         <v>15.540756</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.590000</v>
+        <v>1264.5899999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.488000</v>
+        <v>-575.48800000000006</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>55957.254210</v>
+        <v>55957.254209999999</v>
       </c>
       <c r="BT15" s="1">
         <v>15.543682</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.970000</v>
+        <v>1412.97</v>
       </c>
       <c r="BV15" s="1">
-        <v>-799.269000</v>
+        <v>-799.26900000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>55968.050099</v>
@@ -4047,90 +4463,90 @@
         <v>15.546681</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.250000</v>
+        <v>1575.25</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1033.440000</v>
+        <v>-1033.44</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>55980.371748</v>
+        <v>55980.371747999998</v>
       </c>
       <c r="CD15" s="1">
         <v>15.550103</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.970000</v>
+        <v>1985.97</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1579.260000</v>
+        <v>-1579.26</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>55808.513927</v>
       </c>
       <c r="B16" s="1">
-        <v>15.502365</v>
+        <v>15.502364999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>903.740000</v>
+        <v>903.74</v>
       </c>
       <c r="D16" s="1">
-        <v>-191.638000</v>
+        <v>-191.63800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>55818.945292</v>
+        <v>55818.945291999997</v>
       </c>
       <c r="G16" s="1">
-        <v>15.505263</v>
+        <v>15.505262999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>920.169000</v>
+        <v>920.16899999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.066000</v>
+        <v>-163.066</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>55829.439641</v>
+        <v>55829.439640999997</v>
       </c>
       <c r="L16" s="1">
-        <v>15.508178</v>
+        <v>15.508177999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.784000</v>
+        <v>941.78399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.156000</v>
+        <v>-117.15600000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>55839.978141</v>
       </c>
       <c r="Q16" s="1">
-        <v>15.511105</v>
+        <v>15.511105000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.243000</v>
+        <v>948.24300000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.365000</v>
+        <v>-102.36499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>55850.464064</v>
@@ -4139,375 +4555,375 @@
         <v>15.514018</v>
       </c>
       <c r="W16" s="1">
-        <v>954.689000</v>
+        <v>954.68899999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.081500</v>
+        <v>-89.081500000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>55861.315009</v>
+        <v>55861.315008999998</v>
       </c>
       <c r="AA16" s="1">
         <v>15.517032</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.028000</v>
+        <v>962.02800000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.105800</v>
+        <v>-80.105800000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>55871.746372</v>
+        <v>55871.746372000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.519930</v>
+        <v>15.51993</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.971000</v>
+        <v>966.971</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.779200</v>
+        <v>-79.779200000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>55881.890080</v>
+        <v>55881.890079999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.522747</v>
+        <v>15.522747000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.029000</v>
+        <v>975.029</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.987200</v>
+        <v>-87.987200000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>55892.690937</v>
+        <v>55892.690936999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>15.525747</v>
+        <v>15.525747000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.368000</v>
+        <v>984.36800000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.230000</v>
+        <v>-103.23</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>55903.814744</v>
+        <v>55903.814744000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.528837</v>
+        <v>15.528836999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.918000</v>
+        <v>995.91800000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.036000</v>
+        <v>-125.036</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>55915.132954</v>
+        <v>55915.132954000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.531981</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.954000</v>
+        <v>-143.95400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>55925.800380</v>
+        <v>55925.800380000001</v>
       </c>
       <c r="BE16" s="1">
         <v>15.534945</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.223000</v>
+        <v>-229.22300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>55936.717363</v>
+        <v>55936.717363000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.537977</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.442000</v>
+        <v>-365.44200000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>55947.115983</v>
+        <v>55947.115983000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.540866</v>
+        <v>15.540865999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.580000</v>
+        <v>1264.58</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.454000</v>
+        <v>-575.45399999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>55957.685203</v>
+        <v>55957.685203000001</v>
       </c>
       <c r="BT16" s="1">
         <v>15.543801</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.020000</v>
+        <v>1413.02</v>
       </c>
       <c r="BV16" s="1">
-        <v>-799.254000</v>
+        <v>-799.25400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>55968.483640</v>
+        <v>55968.483639999999</v>
       </c>
       <c r="BY16" s="1">
         <v>15.546801</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.290000</v>
+        <v>1575.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1033.390000</v>
+        <v>-1033.3900000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>55980.923764</v>
+        <v>55980.923763999999</v>
       </c>
       <c r="CD16" s="1">
         <v>15.550257</v>
       </c>
       <c r="CE16" s="1">
-        <v>1985.460000</v>
+        <v>1985.46</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1580.010000</v>
+        <v>-1580.01</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>55808.856661</v>
+        <v>55808.856660999998</v>
       </c>
       <c r="B17" s="1">
-        <v>15.502460</v>
+        <v>15.502459999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>903.824000</v>
+        <v>903.82399999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-191.605000</v>
+        <v>-191.60499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>55819.288488</v>
+        <v>55819.288487999998</v>
       </c>
       <c r="G17" s="1">
-        <v>15.505358</v>
+        <v>15.505357999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.979000</v>
+        <v>919.97900000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.747000</v>
+        <v>-162.74700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>55829.782843</v>
+        <v>55829.782843000001</v>
       </c>
       <c r="L17" s="1">
-        <v>15.508273</v>
+        <v>15.508273000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>941.681000</v>
+        <v>941.68100000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.989000</v>
+        <v>-116.989</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>55840.329804</v>
+        <v>55840.329804000001</v>
       </c>
       <c r="Q17" s="1">
         <v>15.511203</v>
       </c>
       <c r="R17" s="1">
-        <v>948.205000</v>
+        <v>948.20500000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.391000</v>
+        <v>-102.39100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>55851.123232</v>
+        <v>55851.123231999998</v>
       </c>
       <c r="V17" s="1">
         <v>15.514201</v>
       </c>
       <c r="W17" s="1">
-        <v>954.622000</v>
+        <v>954.62199999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.114800</v>
+        <v>-89.114800000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>55861.703873</v>
+        <v>55861.703872999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.517140</v>
+        <v>15.517139999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.954000</v>
+        <v>961.95399999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.158000</v>
+        <v>-80.158000000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>55872.124836</v>
+        <v>55872.124836000003</v>
       </c>
       <c r="AF17" s="1">
         <v>15.520035</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.960000</v>
+        <v>966.96</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.062000</v>
+        <v>-80.061999999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>55882.238773</v>
+        <v>55882.238772999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.522844</v>
+        <v>15.522843999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.025000</v>
+        <v>975.02499999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.026700</v>
+        <v>-88.026700000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>55893.071367</v>
+        <v>55893.071366999997</v>
       </c>
       <c r="AP17" s="1">
         <v>15.525853</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.360000</v>
+        <v>984.36</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.212000</v>
+        <v>-103.212</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>55904.178318</v>
+        <v>55904.178317999998</v>
       </c>
       <c r="AU17" s="1">
         <v>15.528938</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.915000</v>
+        <v>995.91499999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.031000</v>
+        <v>-125.03100000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>55915.550553</v>
+        <v>55915.550553000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.532097</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.940000</v>
+        <v>-143.94</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>55926.223466</v>
+        <v>55926.223466000003</v>
       </c>
       <c r="BE17" s="1">
         <v>15.535062</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.222000</v>
+        <v>-229.22200000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>55937.133468</v>
@@ -4516,43 +4932,43 @@
         <v>15.538093</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.434000</v>
+        <v>-365.43400000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>55947.537550</v>
+        <v>55947.537550000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>15.540983</v>
+        <v>15.540983000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.570000</v>
+        <v>1264.57</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.454000</v>
+        <v>-575.45399999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>55958.095925</v>
+        <v>55958.095925000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.543916</v>
+        <v>15.543915999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.070000</v>
+        <v>1413.07</v>
       </c>
       <c r="BV17" s="1">
-        <v>-799.277000</v>
+        <v>-799.27700000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>55968.903219</v>
@@ -4561,75 +4977,75 @@
         <v>15.546918</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.410000</v>
+        <v>1575.41</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>55981.452529</v>
+        <v>55981.452529000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.550403</v>
+        <v>15.550402999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.760000</v>
+        <v>1985.76</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1578.400000</v>
+        <v>-1578.4</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>55809.188487</v>
+        <v>55809.188486999999</v>
       </c>
       <c r="B18" s="1">
         <v>15.502552</v>
       </c>
       <c r="C18" s="1">
-        <v>903.989000</v>
+        <v>903.98900000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-191.658000</v>
+        <v>-191.65799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>55819.633242</v>
+        <v>55819.633242000004</v>
       </c>
       <c r="G18" s="1">
         <v>15.505454</v>
       </c>
       <c r="H18" s="1">
-        <v>920.053000</v>
+        <v>920.053</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.357000</v>
+        <v>-162.357</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>55830.445993</v>
+        <v>55830.445993000001</v>
       </c>
       <c r="L18" s="1">
         <v>15.508457</v>
       </c>
       <c r="M18" s="1">
-        <v>941.643000</v>
+        <v>941.64300000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.042000</v>
+        <v>-117.042</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>55841.168048</v>
@@ -4638,450 +5054,450 @@
         <v>15.511436</v>
       </c>
       <c r="R18" s="1">
-        <v>948.188000</v>
+        <v>948.18799999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.305000</v>
+        <v>-102.30500000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>55851.493726</v>
+        <v>55851.493726000001</v>
       </c>
       <c r="V18" s="1">
-        <v>15.514304</v>
+        <v>15.514303999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>954.648000</v>
+        <v>954.64800000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.054200</v>
+        <v>-89.054199999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>55862.049119</v>
+        <v>55862.049119000003</v>
       </c>
       <c r="AA18" s="1">
         <v>15.517236</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.014000</v>
+        <v>962.01400000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.127300</v>
+        <v>-80.127300000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>55872.467586</v>
+        <v>55872.467585999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.520130</v>
+        <v>15.52013</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.023000</v>
+        <v>967.02300000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.946700</v>
+        <v>-79.946700000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>55882.585940</v>
+        <v>55882.585939999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.522941</v>
+        <v>15.522940999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.053000</v>
+        <v>975.053</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.977300</v>
+        <v>-87.9773</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>55893.429975</v>
+        <v>55893.429974999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.525953</v>
+        <v>15.525952999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.351000</v>
+        <v>984.351</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.220000</v>
+        <v>-103.22</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>55904.586983</v>
+        <v>55904.586983000001</v>
       </c>
       <c r="AU18" s="1">
         <v>15.529052</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.942000</v>
+        <v>995.94200000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>55915.850138</v>
+        <v>55915.850138000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>15.532181</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.720000</v>
+        <v>1005.72</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.943000</v>
+        <v>-143.94300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>55926.522555</v>
+        <v>55926.522555000003</v>
       </c>
       <c r="BE18" s="1">
         <v>15.535145</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.200000</v>
+        <v>-229.2</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>55937.468766</v>
+        <v>55937.468765999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.538186</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.190000</v>
+        <v>1132.19</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.407000</v>
+        <v>-365.40699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>55947.935838</v>
+        <v>55947.935837999998</v>
       </c>
       <c r="BO18" s="1">
         <v>15.541093</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.550000</v>
+        <v>1264.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.416000</v>
+        <v>-575.41600000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>55958.526945</v>
+        <v>55958.526944999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>15.544035</v>
+        <v>15.544034999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.070000</v>
+        <v>1413.07</v>
       </c>
       <c r="BV18" s="1">
-        <v>-799.306000</v>
+        <v>-799.30600000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>55969.322339</v>
+        <v>55969.322338999998</v>
       </c>
       <c r="BY18" s="1">
         <v>15.547034</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.380000</v>
+        <v>1575.38</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1033.400000</v>
+        <v>-1033.4000000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>55981.970357</v>
+        <v>55981.970356999998</v>
       </c>
       <c r="CD18" s="1">
         <v>15.550547</v>
       </c>
       <c r="CE18" s="1">
-        <v>1984.110000</v>
+        <v>1984.11</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1578.680000</v>
+        <v>-1578.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>55809.830276</v>
+        <v>55809.830276000001</v>
       </c>
       <c r="B19" s="1">
-        <v>15.502731</v>
+        <v>15.502731000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>903.692000</v>
+        <v>903.69200000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-191.705000</v>
+        <v>-191.70500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>55820.287962</v>
+        <v>55820.287962000002</v>
       </c>
       <c r="G19" s="1">
-        <v>15.505636</v>
+        <v>15.505636000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.766000</v>
+        <v>919.76599999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-162.635000</v>
+        <v>-162.63499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>55830.819977</v>
+        <v>55830.819976999999</v>
       </c>
       <c r="L19" s="1">
         <v>15.508561</v>
       </c>
       <c r="M19" s="1">
-        <v>941.707000</v>
+        <v>941.70699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.909000</v>
+        <v>-116.90900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>55841.373355</v>
+        <v>55841.373355000003</v>
       </c>
       <c r="Q19" s="1">
         <v>15.511493</v>
       </c>
       <c r="R19" s="1">
-        <v>948.195000</v>
+        <v>948.19500000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.309000</v>
+        <v>-102.309</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>55851.837641</v>
+        <v>55851.837640999998</v>
       </c>
       <c r="V19" s="1">
-        <v>15.514399</v>
+        <v>15.514398999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>954.693000</v>
+        <v>954.69299999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.121200</v>
+        <v>-89.121200000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>55862.397312</v>
+        <v>55862.397312000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.517333</v>
+        <v>15.517333000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.945000</v>
+        <v>961.94500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.113800</v>
+        <v>-80.113799999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>55872.810289</v>
+        <v>55872.810289000001</v>
       </c>
       <c r="AF19" s="1">
         <v>15.520225</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.954000</v>
+        <v>966.95399999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.960600</v>
+        <v>-79.960599999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>55882.989686</v>
+        <v>55882.989686000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.523053</v>
+        <v>15.523053000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.033000</v>
+        <v>975.03300000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.997700</v>
+        <v>-87.997699999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>55893.847152</v>
+        <v>55893.847152000002</v>
       </c>
       <c r="AP19" s="1">
         <v>15.526069</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.367000</v>
+        <v>984.36699999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.231000</v>
+        <v>-103.23099999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>55904.908887</v>
+        <v>55904.908886999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.529141</v>
+        <v>15.529140999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.949000</v>
+        <v>995.94899999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.019000</v>
+        <v>-125.01900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>55916.210232</v>
+        <v>55916.210231999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.532281</v>
+        <v>15.532280999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.700000</v>
+        <v>1005.7</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.942000</v>
+        <v>-143.94200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>55926.883643</v>
+        <v>55926.883643000001</v>
       </c>
       <c r="BE19" s="1">
         <v>15.535245</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.208000</v>
+        <v>-229.208</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>55937.851181</v>
+        <v>55937.851180999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.538292</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.140000</v>
+        <v>1132.1400000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.414000</v>
+        <v>-365.41399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>55948.353008</v>
+        <v>55948.353007999998</v>
       </c>
       <c r="BO19" s="1">
         <v>15.541209</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.407000</v>
+        <v>-575.40700000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>55958.952019</v>
+        <v>55958.952018999997</v>
       </c>
       <c r="BT19" s="1">
         <v>15.544153</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.160000</v>
+        <v>1413.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-799.370000</v>
+        <v>-799.37</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>55969.779690</v>
+        <v>55969.779690000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.547161</v>
+        <v>15.547160999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.410000</v>
+        <v>1575.41</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1033.260000</v>
+        <v>-1033.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>55982.492113</v>
@@ -5090,180 +5506,180 @@
         <v>15.550692</v>
       </c>
       <c r="CE19" s="1">
-        <v>1984.440000</v>
+        <v>1984.44</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1580.140000</v>
+        <v>-1580.14</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>55810.219672</v>
+        <v>55810.219671999999</v>
       </c>
       <c r="B20" s="1">
         <v>15.502839</v>
       </c>
       <c r="C20" s="1">
-        <v>903.794000</v>
+        <v>903.79399999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-191.615000</v>
+        <v>-191.61500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>55820.669846</v>
+        <v>55820.669845999997</v>
       </c>
       <c r="G20" s="1">
         <v>15.505742</v>
       </c>
       <c r="H20" s="1">
-        <v>919.875000</v>
+        <v>919.875</v>
       </c>
       <c r="I20" s="1">
-        <v>-162.745000</v>
+        <v>-162.745</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>55831.164235</v>
+        <v>55831.164234999997</v>
       </c>
       <c r="L20" s="1">
-        <v>15.508657</v>
+        <v>15.508656999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>941.752000</v>
+        <v>941.75199999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.916000</v>
+        <v>-116.916</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>55841.723072</v>
+        <v>55841.723072000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.511590</v>
+        <v>15.51159</v>
       </c>
       <c r="R20" s="1">
-        <v>948.208000</v>
+        <v>948.20799999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.339000</v>
+        <v>-102.339</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>55852.179693</v>
+        <v>55852.179692999998</v>
       </c>
       <c r="V20" s="1">
-        <v>15.514494</v>
+        <v>15.514493999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>954.676000</v>
+        <v>954.67600000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.134100</v>
+        <v>-89.134100000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>55862.814416</v>
+        <v>55862.814416000001</v>
       </c>
       <c r="AA20" s="1">
         <v>15.517448</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.072000</v>
+        <v>962.072</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.092200</v>
+        <v>-80.092200000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>55873.239825</v>
+        <v>55873.239824999997</v>
       </c>
       <c r="AF20" s="1">
         <v>15.520344</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.108000</v>
+        <v>967.10799999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.921200</v>
+        <v>-79.921199999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>55883.287781</v>
+        <v>55883.287780999999</v>
       </c>
       <c r="AK20" s="1">
         <v>15.523135</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.052000</v>
+        <v>975.05200000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.998300</v>
+        <v>-87.9983</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>55894.150167</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.526153</v>
+        <v>15.526153000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.368000</v>
+        <v>984.36800000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>55905.273479</v>
+        <v>55905.273479000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.529243</v>
+        <v>15.529242999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.919000</v>
+        <v>995.91899999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>55916.567880</v>
+        <v>55916.567880000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.532380</v>
+        <v>15.53238</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.936000</v>
+        <v>-143.93600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>55927.242778</v>
@@ -5272,73 +5688,73 @@
         <v>15.535345</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.211000</v>
+        <v>-229.21100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>55938.240043</v>
+        <v>55938.240042999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.538400</v>
+        <v>15.538399999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.130000</v>
+        <v>1132.1300000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.455000</v>
+        <v>-365.45499999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>55948.751263</v>
+        <v>55948.751262999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.541320</v>
+        <v>15.541320000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.610000</v>
+        <v>1264.6099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.403000</v>
+        <v>-575.40300000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>55959.365679</v>
+        <v>55959.365679000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.544268</v>
+        <v>15.544268000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.040000</v>
+        <v>1413.04</v>
       </c>
       <c r="BV20" s="1">
-        <v>-799.411000</v>
+        <v>-799.41099999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>55970.226546</v>
+        <v>55970.226545999998</v>
       </c>
       <c r="BY20" s="1">
         <v>15.547285</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.250000</v>
+        <v>1575.25</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1033.240000</v>
+        <v>-1033.24</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>55983.008448</v>
@@ -5347,45 +5763,45 @@
         <v>15.550836</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.400000</v>
+        <v>1984.4</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1579.850000</v>
+        <v>-1579.85</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>55810.566339</v>
+        <v>55810.566338999997</v>
       </c>
       <c r="B21" s="1">
-        <v>15.502935</v>
+        <v>15.502935000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>903.821000</v>
+        <v>903.82100000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-191.613000</v>
+        <v>-191.613</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>55821.014070</v>
+        <v>55821.014069999997</v>
       </c>
       <c r="G21" s="1">
         <v>15.505837</v>
       </c>
       <c r="H21" s="1">
-        <v>919.959000</v>
+        <v>919.95899999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-162.479000</v>
+        <v>-162.47900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>55831.512424</v>
@@ -5394,163 +5810,163 @@
         <v>15.508753</v>
       </c>
       <c r="M21" s="1">
-        <v>941.775000</v>
+        <v>941.77499999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.159000</v>
+        <v>-117.15900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>55842.132731</v>
+        <v>55842.132730999998</v>
       </c>
       <c r="Q21" s="1">
         <v>15.511704</v>
       </c>
       <c r="R21" s="1">
-        <v>948.255000</v>
+        <v>948.255</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.325000</v>
+        <v>-102.325</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>55852.600828</v>
+        <v>55852.600828000002</v>
       </c>
       <c r="V21" s="1">
         <v>15.514611</v>
       </c>
       <c r="W21" s="1">
-        <v>954.698000</v>
+        <v>954.69799999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.081000</v>
+        <v>-89.081000000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>55863.111054</v>
+        <v>55863.111054000001</v>
       </c>
       <c r="AA21" s="1">
         <v>15.517531</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.006000</v>
+        <v>962.00599999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.092200</v>
+        <v>-80.092200000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>55873.522081</v>
+        <v>55873.522081000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.520423</v>
+        <v>15.520422999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.013000</v>
+        <v>967.01300000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.742700</v>
+        <v>-79.742699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>55883.637460</v>
+        <v>55883.637459999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.523233</v>
+        <v>15.523232999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.057000</v>
+        <v>975.05700000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.006500</v>
+        <v>-88.006500000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>55894.512773</v>
+        <v>55894.512773000002</v>
       </c>
       <c r="AP21" s="1">
         <v>15.526254</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.374000</v>
+        <v>984.37400000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.217000</v>
+        <v>-103.217</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>55905.639030</v>
+        <v>55905.639029999998</v>
       </c>
       <c r="AU21" s="1">
         <v>15.529344</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.930000</v>
+        <v>995.93</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>55917.292503</v>
+        <v>55917.292502999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.532581</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.730000</v>
+        <v>1005.73</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.936000</v>
+        <v>-143.93600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>55927.967897</v>
+        <v>55927.967897000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>15.535547</v>
+        <v>15.535546999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.207000</v>
+        <v>-229.20699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>55938.990491</v>
+        <v>55938.990490999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.538608</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.408000</v>
+        <v>-365.40800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>55949.173358</v>
@@ -5559,195 +5975,195 @@
         <v>15.541437</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.570000</v>
+        <v>1264.57</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.468000</v>
+        <v>-575.46799999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>55959.798696</v>
+        <v>55959.798695999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.544389</v>
+        <v>15.544389000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.240000</v>
+        <v>1413.24</v>
       </c>
       <c r="BV21" s="1">
-        <v>-799.409000</v>
+        <v>-799.40899999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>55970.658064</v>
+        <v>55970.658064000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.547405</v>
+        <v>15.547404999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.200000</v>
+        <v>1575.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1033.520000</v>
+        <v>-1033.52</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>55983.559218</v>
+        <v>55983.559218000002</v>
       </c>
       <c r="CD21" s="1">
         <v>15.550989</v>
       </c>
       <c r="CE21" s="1">
-        <v>1983.720000</v>
+        <v>1983.72</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1578.610000</v>
+        <v>-1578.61</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>55810.907092</v>
+        <v>55810.907092000001</v>
       </c>
       <c r="B22" s="1">
-        <v>15.503030</v>
+        <v>15.503030000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>903.770000</v>
+        <v>903.77</v>
       </c>
       <c r="D22" s="1">
-        <v>-191.500000</v>
+        <v>-191.5</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>55821.361269</v>
+        <v>55821.361269000001</v>
       </c>
       <c r="G22" s="1">
         <v>15.505934</v>
       </c>
       <c r="H22" s="1">
-        <v>920.210000</v>
+        <v>920.21</v>
       </c>
       <c r="I22" s="1">
-        <v>-162.620000</v>
+        <v>-162.62</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>55831.923607</v>
+        <v>55831.923606999997</v>
       </c>
       <c r="L22" s="1">
         <v>15.508868</v>
       </c>
       <c r="M22" s="1">
-        <v>941.612000</v>
+        <v>941.61199999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.106000</v>
+        <v>-117.10599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>55842.421931</v>
+        <v>55842.421930999997</v>
       </c>
       <c r="Q22" s="1">
         <v>15.511784</v>
       </c>
       <c r="R22" s="1">
-        <v>948.231000</v>
+        <v>948.23099999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.350000</v>
+        <v>-102.35</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>55852.892445</v>
+        <v>55852.892444999998</v>
       </c>
       <c r="V22" s="1">
         <v>15.514692</v>
       </c>
       <c r="W22" s="1">
-        <v>954.728000</v>
+        <v>954.72799999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.180700</v>
+        <v>-89.180700000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>55863.458750</v>
+        <v>55863.458749999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.517627</v>
+        <v>15.517626999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.978000</v>
+        <v>961.97799999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.146000</v>
+        <v>-80.146000000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>55873.865280</v>
+        <v>55873.865279999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.520518</v>
+        <v>15.520517999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.051000</v>
+        <v>967.05100000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.972900</v>
+        <v>-79.972899999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>55883.985688</v>
+        <v>55883.985688000001</v>
       </c>
       <c r="AK22" s="1">
         <v>15.523329</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.030000</v>
+        <v>975.03</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.000000</v>
+        <v>-88</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>55894.872836</v>
+        <v>55894.872836000002</v>
       </c>
       <c r="AP22" s="1">
         <v>15.526354</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.371000</v>
+        <v>984.37099999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.216000</v>
+        <v>-103.21599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>55906.366295</v>
@@ -5756,572 +6172,572 @@
         <v>15.529546</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.922000</v>
+        <v>995.92200000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.995000</v>
+        <v>-124.995</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>55917.669462</v>
+        <v>55917.669461999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.532686</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.947000</v>
+        <v>-143.947</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>55928.352792</v>
+        <v>55928.352791999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.535654</v>
+        <v>15.535653999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.218000</v>
+        <v>-229.21799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>55939.392746</v>
+        <v>55939.392745999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.538720</v>
+        <v>15.53872</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.180000</v>
+        <v>1132.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.407000</v>
+        <v>-365.40699999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>55949.569660</v>
+        <v>55949.569660000001</v>
       </c>
       <c r="BO22" s="1">
         <v>15.541547</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.560000</v>
+        <v>1264.56</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.424000</v>
+        <v>-575.42399999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>55960.225746</v>
+        <v>55960.225745999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.544507</v>
+        <v>15.544506999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.170000</v>
+        <v>1413.17</v>
       </c>
       <c r="BV22" s="1">
-        <v>-799.484000</v>
+        <v>-799.48400000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>55971.079665</v>
+        <v>55971.079664999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.547522</v>
+        <v>15.547522000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.320000</v>
+        <v>1575.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1033.430000</v>
+        <v>-1033.43</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>55984.414644</v>
+        <v>55984.414643999997</v>
       </c>
       <c r="CD22" s="1">
         <v>15.551226</v>
       </c>
       <c r="CE22" s="1">
-        <v>1984.620000</v>
+        <v>1984.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1580.120000</v>
+        <v>-1580.12</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>55811.311332</v>
+        <v>55811.311331999997</v>
       </c>
       <c r="B23" s="1">
         <v>15.503142</v>
       </c>
       <c r="C23" s="1">
-        <v>903.749000</v>
+        <v>903.74900000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-191.627000</v>
+        <v>-191.62700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>55821.771957</v>
+        <v>55821.771956999997</v>
       </c>
       <c r="G23" s="1">
         <v>15.506048</v>
       </c>
       <c r="H23" s="1">
-        <v>919.849000</v>
+        <v>919.84900000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.941000</v>
+        <v>-162.941</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>55832.222667</v>
+        <v>55832.222667000002</v>
       </c>
       <c r="L23" s="1">
         <v>15.508951</v>
       </c>
       <c r="M23" s="1">
-        <v>941.834000</v>
+        <v>941.83399999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.100000</v>
+        <v>-117.1</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>55842.768105</v>
+        <v>55842.768105000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.511880</v>
+        <v>15.51188</v>
       </c>
       <c r="R23" s="1">
-        <v>948.198000</v>
+        <v>948.19799999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.340000</v>
+        <v>-102.34</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>55853.234684</v>
+        <v>55853.234684000003</v>
       </c>
       <c r="V23" s="1">
         <v>15.514787</v>
       </c>
       <c r="W23" s="1">
-        <v>954.768000</v>
+        <v>954.76800000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.085200</v>
+        <v>-89.0852</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>55863.809421</v>
+        <v>55863.809420999998</v>
       </c>
       <c r="AA23" s="1">
         <v>15.517725</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.982000</v>
+        <v>961.98199999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.063500</v>
+        <v>-80.063500000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>55874.208513</v>
+        <v>55874.208512999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.520613</v>
+        <v>15.520613000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.046000</v>
+        <v>967.04600000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.908500</v>
+        <v>-79.908500000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>55884.680575</v>
+        <v>55884.680574999998</v>
       </c>
       <c r="AK23" s="1">
         <v>15.523522</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.038000</v>
+        <v>975.03800000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.994600</v>
+        <v>-87.994600000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>55895.591539</v>
+        <v>55895.591539000001</v>
       </c>
       <c r="AP23" s="1">
         <v>15.526553</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.352000</v>
+        <v>984.35199999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.217000</v>
+        <v>-103.217</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>55906.759493</v>
+        <v>55906.759492999998</v>
       </c>
       <c r="AU23" s="1">
         <v>15.529655</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.919000</v>
+        <v>995.91899999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.041000</v>
+        <v>-125.041</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>55918.047415</v>
+        <v>55918.047415000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>15.532791</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.720000</v>
+        <v>1005.72</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.931000</v>
+        <v>-143.93100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>55928.715863</v>
+        <v>55928.715862999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.535754</v>
+        <v>15.535754000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.222000</v>
+        <v>-229.22200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>55939.768713</v>
+        <v>55939.768712999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.538825</v>
+        <v>15.538824999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.150000</v>
+        <v>1132.1500000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.414000</v>
+        <v>-365.41399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>55949.991755</v>
+        <v>55949.991755000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.541664</v>
+        <v>15.541664000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.461000</v>
+        <v>-575.46100000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>55960.636893</v>
+        <v>55960.636893000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.544621</v>
+        <v>15.544620999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.220000</v>
+        <v>1413.22</v>
       </c>
       <c r="BV23" s="1">
-        <v>-799.567000</v>
+        <v>-799.56700000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>55971.806340</v>
+        <v>55971.806340000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.547724</v>
+        <v>15.547724000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>55984.642520</v>
+        <v>55984.642520000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.551290</v>
+        <v>15.55129</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.790000</v>
+        <v>1985.79</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1579.320000</v>
+        <v>-1579.32</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>55811.607442</v>
       </c>
       <c r="B24" s="1">
-        <v>15.503224</v>
+        <v>15.503223999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>903.752000</v>
+        <v>903.75199999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-191.605000</v>
+        <v>-191.60499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>55822.054217</v>
+        <v>55822.054216999997</v>
       </c>
       <c r="G24" s="1">
         <v>15.506126</v>
       </c>
       <c r="H24" s="1">
-        <v>920.367000</v>
+        <v>920.36699999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-162.476000</v>
+        <v>-162.476</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>55832.570360</v>
+        <v>55832.570359999998</v>
       </c>
       <c r="L24" s="1">
-        <v>15.509047</v>
+        <v>15.509047000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.839000</v>
+        <v>941.83900000000006</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.163000</v>
+        <v>-117.163</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>55843.117785</v>
+        <v>55843.117785000002</v>
       </c>
       <c r="Q24" s="1">
         <v>15.511977</v>
       </c>
       <c r="R24" s="1">
-        <v>948.203000</v>
+        <v>948.20299999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.329000</v>
+        <v>-102.32899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>55853.576955</v>
+        <v>55853.576954999997</v>
       </c>
       <c r="V24" s="1">
         <v>15.514882</v>
       </c>
       <c r="W24" s="1">
-        <v>954.712000</v>
+        <v>954.71199999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.003500</v>
+        <v>-89.003500000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>55864.507791</v>
+        <v>55864.507791000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.517919</v>
+        <v>15.517918999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.977000</v>
+        <v>961.97699999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.060500</v>
+        <v>-80.060500000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>55874.895471</v>
+        <v>55874.895471000003</v>
       </c>
       <c r="AF24" s="1">
         <v>15.520804</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.886000</v>
+        <v>966.88599999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.789100</v>
+        <v>-79.789100000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>55885.031714</v>
+        <v>55885.031713999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.523620</v>
+        <v>15.523619999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.035000</v>
+        <v>975.03499999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.008800</v>
+        <v>-88.008799999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>55895.953620</v>
+        <v>55895.95362</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.526654</v>
+        <v>15.526654000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.368000</v>
+        <v>984.36800000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>55907.125012</v>
+        <v>55907.125011999997</v>
       </c>
       <c r="AU24" s="1">
         <v>15.529757</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.925000</v>
+        <v>995.92499999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.031000</v>
+        <v>-125.03100000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>55918.712052</v>
+        <v>55918.712052000003</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.532976</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.720000</v>
+        <v>1005.72</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.940000</v>
+        <v>-143.94</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>55929.381000</v>
+        <v>55929.381000000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.535939</v>
+        <v>15.535939000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.210000</v>
+        <v>-229.21</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>55940.445257</v>
+        <v>55940.445256999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.539013</v>
+        <v>15.539013000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.170000</v>
+        <v>1132.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.446000</v>
+        <v>-365.44600000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>55950.689132</v>
@@ -6330,61 +6746,61 @@
         <v>15.541858</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.580000</v>
+        <v>1264.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.471000</v>
+        <v>-575.471</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>55961.368033</v>
+        <v>55961.368032999999</v>
       </c>
       <c r="BT24" s="1">
         <v>15.544824</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV24" s="1">
-        <v>-799.558000</v>
+        <v>-799.55799999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>55971.925877</v>
+        <v>55971.925877000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.547757</v>
+        <v>15.547757000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.320000</v>
+        <v>1575.32</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1033.410000</v>
+        <v>-1033.4100000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>55985.175787</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.551438</v>
+        <v>15.551437999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1983.940000</v>
+        <v>1983.94</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1578.490000</v>
+        <v>-1578.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>55811.944227</v>
       </c>
@@ -6392,345 +6808,345 @@
         <v>15.503318</v>
       </c>
       <c r="C25" s="1">
-        <v>903.778000</v>
+        <v>903.77800000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-191.644000</v>
+        <v>-191.64400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>55822.398406</v>
       </c>
       <c r="G25" s="1">
-        <v>15.506222</v>
+        <v>15.506221999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>920.305000</v>
+        <v>920.30499999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-162.498000</v>
+        <v>-162.49799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>55832.913627</v>
+        <v>55832.913627000002</v>
       </c>
       <c r="L25" s="1">
         <v>15.509143</v>
       </c>
       <c r="M25" s="1">
-        <v>941.832000</v>
+        <v>941.83199999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.099000</v>
+        <v>-117.099</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>55843.814202</v>
+        <v>55843.814202000001</v>
       </c>
       <c r="Q25" s="1">
         <v>15.512171</v>
       </c>
       <c r="R25" s="1">
-        <v>948.220000</v>
+        <v>948.22</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.250000</v>
+        <v>-102.25</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>55854.265371</v>
+        <v>55854.265371000001</v>
       </c>
       <c r="V25" s="1">
         <v>15.515074</v>
       </c>
       <c r="W25" s="1">
-        <v>954.677000</v>
+        <v>954.67700000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.118600</v>
+        <v>-89.118600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>55864.854956</v>
+        <v>55864.854956000003</v>
       </c>
       <c r="AA25" s="1">
         <v>15.518015</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.002000</v>
+        <v>962.00199999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.080100</v>
+        <v>-80.080100000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>55875.238206</v>
+        <v>55875.238206000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.520900</v>
+        <v>15.520899999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.031000</v>
+        <v>967.03099999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.861400</v>
+        <v>-79.861400000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>55885.380897</v>
+        <v>55885.380897000003</v>
       </c>
       <c r="AK25" s="1">
         <v>15.523717</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.049000</v>
+        <v>975.04899999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.021400</v>
+        <v>-88.0214</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>55896.627682</v>
+        <v>55896.627681999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.526841</v>
+        <v>15.526840999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.381000</v>
+        <v>984.38099999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.225000</v>
+        <v>-103.22499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>55907.801059</v>
+        <v>55907.801058999998</v>
       </c>
       <c r="AU25" s="1">
         <v>15.529945</v>
       </c>
       <c r="AV25" s="1">
-        <v>995.928000</v>
+        <v>995.928</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.067000</v>
+        <v>-125.06699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>55919.131668</v>
+        <v>55919.131668000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.533092</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.943000</v>
+        <v>-143.94300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>55929.831366</v>
+        <v>55929.831365999999</v>
       </c>
       <c r="BE25" s="1">
         <v>15.536064</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.221000</v>
+        <v>-229.221</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>55940.550409</v>
+        <v>55940.550409000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.539042</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.130000</v>
+        <v>1132.1300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.416000</v>
+        <v>-365.416</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>55950.827018</v>
+        <v>55950.827018000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.541896</v>
+        <v>15.541895999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.570000</v>
+        <v>1264.57</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.454000</v>
+        <v>-575.45399999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>55961.492010</v>
+        <v>55961.492010000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.544859</v>
+        <v>15.544859000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV25" s="1">
-        <v>-799.634000</v>
+        <v>-799.63400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>55972.375711</v>
+        <v>55972.375711000001</v>
       </c>
       <c r="BY25" s="1">
         <v>15.547882</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.270000</v>
+        <v>1575.27</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1033.350000</v>
+        <v>-1033.3499999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>55985.706684</v>
+        <v>55985.706683999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.551585</v>
+        <v>15.551584999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.090000</v>
+        <v>1985.09</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1580.190000</v>
+        <v>-1580.19</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>55812.287458</v>
+        <v>55812.287457999999</v>
       </c>
       <c r="B26" s="1">
         <v>15.503413</v>
       </c>
       <c r="C26" s="1">
-        <v>903.884000</v>
+        <v>903.88400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-191.611000</v>
+        <v>-191.61099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>55822.769907</v>
+        <v>55822.769907000002</v>
       </c>
       <c r="G26" s="1">
         <v>15.506325</v>
       </c>
       <c r="H26" s="1">
-        <v>919.798000</v>
+        <v>919.798</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.806000</v>
+        <v>-162.80600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>55833.606010</v>
+        <v>55833.606010000003</v>
       </c>
       <c r="L26" s="1">
         <v>15.509335</v>
       </c>
       <c r="M26" s="1">
-        <v>941.753000</v>
+        <v>941.75300000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.201000</v>
+        <v>-117.20099999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>55844.163847</v>
+        <v>55844.163847000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.512268</v>
+        <v>15.512268000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>948.231000</v>
+        <v>948.23099999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.291000</v>
+        <v>-102.291</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>55854.609593</v>
+        <v>55854.609593000001</v>
       </c>
       <c r="V26" s="1">
         <v>15.515169</v>
       </c>
       <c r="W26" s="1">
-        <v>954.655000</v>
+        <v>954.65499999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.128400</v>
+        <v>-89.128399999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>55865.203148</v>
+        <v>55865.203148000001</v>
       </c>
       <c r="AA26" s="1">
         <v>15.518112</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.987000</v>
+        <v>961.98699999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.100100</v>
+        <v>-80.100099999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>55875.579951</v>
@@ -6739,165 +7155,166 @@
         <v>15.520994</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.006000</v>
+        <v>967.00599999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.963300</v>
+        <v>-79.963300000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>55886.032171</v>
+        <v>55886.032170999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.523898</v>
+        <v>15.523898000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.035000</v>
+        <v>975.03499999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.998900</v>
+        <v>-87.998900000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>55897.052259</v>
+        <v>55897.052258999996</v>
       </c>
       <c r="AP26" s="1">
         <v>15.526959</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.357000</v>
+        <v>984.35699999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.223000</v>
+        <v>-103.223</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>55908.479622</v>
+        <v>55908.479621999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.530133</v>
+        <v>15.530132999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.904000</v>
+        <v>995.904</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.047000</v>
+        <v>-125.047</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>55919.506643</v>
+        <v>55919.506643000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.533196</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.710000</v>
+        <v>1005.71</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.940000</v>
+        <v>-143.94</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>55930.192454</v>
+        <v>55930.192454000004</v>
       </c>
       <c r="BE26" s="1">
         <v>15.536165</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.224000</v>
+        <v>-229.22399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>55940.919927</v>
+        <v>55940.919927000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.539144</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.140000</v>
+        <v>1132.1400000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.436000</v>
+        <v>-365.43599999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>55951.234729</v>
+        <v>55951.234729000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.542010</v>
+        <v>15.542009999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.421000</v>
+        <v>-575.42100000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>55961.906652</v>
+        <v>55961.906651999998</v>
       </c>
       <c r="BT26" s="1">
         <v>15.544974</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.140000</v>
+        <v>1413.14</v>
       </c>
       <c r="BV26" s="1">
-        <v>-799.722000</v>
+        <v>-799.72199999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>55972.804749</v>
+        <v>55972.804749000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.548001</v>
+        <v>15.548000999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.360000</v>
+        <v>1575.36</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1033.370000</v>
+        <v>-1033.3699999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>55986.254300</v>
+        <v>55986.254300000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.551737</v>
+        <v>15.551736999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1984.910000</v>
+        <v>1984.91</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1577.930000</v>
+        <v>-1577.93</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>